--- a/sachin.xlsx
+++ b/sachin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -450,19 +456,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Gram</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Today Price</t>
+          <t>22 Carat Gold  Today</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yesterday's Price</t>
-        </is>
-      </c>
+          <t>22 Carat Gold  Yesterday</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Daily Price Change</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -470,177 +482,183 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>1 gram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 86.30</t>
+          <t>₹ 4,796</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 86.30</t>
-        </is>
-      </c>
+          <t>₹ 4,795</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kolkata</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 87.69</t>
+          <t>₹ 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 87.69</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 92.86</t>
+          <t>8 gram</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 92.86</t>
-        </is>
-      </c>
+          <t>₹ 38,368</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>₹ 38,360</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.82</t>
+          <t>₹ 8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.82</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gurgaon</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 84.36</t>
+          <t>10 gram</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 84.43</t>
-        </is>
-      </c>
+          <t>₹ 47,960</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>₹ 47,950</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Noida</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 85.65</t>
+          <t>₹ 10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 85.90</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 89.21</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 89.21</t>
-        </is>
-      </c>
+          <t>₹ 4,79,600</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>₹ 4,79,500</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bhubaneswar</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 87.03</t>
+          <t>₹ 100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 86.96</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chandigarh</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 83.09</t>
+          <t>Gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 83.09</t>
+          <t>24 Carat Gold  Today</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24 Carat Gold  Yesterday</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Daily Price Change</t>
         </is>
       </c>
     </row>
@@ -650,99 +668,3713 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>1 gram</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 89.77</t>
+          <t>₹ 4,896</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 89.77</t>
-        </is>
-      </c>
+          <t>₹ 4,895</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jaipur</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 92.98</t>
+          <t>₹ 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 92.68</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Lucknow</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 85.43</t>
+          <t>8 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 85.73</t>
-        </is>
-      </c>
+          <t>₹ 39,168</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>₹ 39,160</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Patna</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.87</t>
+          <t>₹ 8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.78</t>
-        </is>
-      </c>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Trivandrum</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.33</t>
+          <t>10 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ₹ 88.33</t>
-        </is>
-      </c>
+          <t>₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>₹ 48,950</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>₹ 10</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100 gram</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>₹ 4,89,600</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>₹ 4,89,500</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>₹ 100</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22 Carat Gold  Today</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24 Carat Gold  Today</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 46,560</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 50,780</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 52,310</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,330</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 51,030</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,310</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 51,310</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ahmedabad</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,310</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 51,310</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jaipur</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 52,310</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lucknow</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 52,310</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Coimbatore</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 46,560</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 50,780</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Madurai</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 46,560</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 50,780</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vijayawada</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Patna</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,310</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 52,160</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Surat</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,310</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 51,310</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bhubaneswar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mangalore</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Visakhapatnam</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nashik</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 47,960</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 48,960</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 45,810</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ₹ 49,960</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22 Carat</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24 Carat</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jan 31, 2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>₹ 47,960</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>( 10 )</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>₹ 48,960</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>( 10  )</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Jan 30, 2021</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>₹ 47,950</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>( 150 )</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>₹ 48,950</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>( 150  )</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Jan 29, 2021</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>₹ 47,800</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>( 0 )</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>₹ 48,800</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>( 0  )</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jan 28, 2021</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>₹ 47,800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>( -200 )</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>₹ 48,800</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>( -200  )</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Jan 27, 2021</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>₹ 48,000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>( -330 )</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>₹ 49,000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>( -330  )</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jan 26, 2021</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>₹ 48,330</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>( 0 )</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>₹ 49,330</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>( 0  )</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Jan 25, 2021</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>₹ 48,330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>( 0 )</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>₹ 49,330</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>( 0  )</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Jan 24, 2021</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>₹ 48,330</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>( -10 )</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>₹ 49,330</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>( -10  )</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Jan 23, 2021</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>₹ 48,340</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>( -210 )</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>₹ 49,340</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>( -210  )</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jan 22, 2021</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>₹ 48,550</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>( -50 )</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>₹ 49,550</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>( -50  )</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st December rate									</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.46,920</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,920</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		31st December rate</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,930</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,930</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in December</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,370 on December 21</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,370 on December 21</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in December</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.46,920 on December  1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,920 on December  1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+4.28%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+4.19%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st November rate									</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,960</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,960</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		30th November rate</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,240</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,240</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in November</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,190 on November  9</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.52,230 on November  9</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in November</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,240 on November 28</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,240 on November 28</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-5.44%</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-5.34%</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st October rate									</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,900</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,900</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		31st October rate</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,950</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,950</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in October</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,200 on October 14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,200 on October 14</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in October</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,900 on October  1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,900 on October  1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+2.15%</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+2.10%</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st September rate									</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,750</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,750</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		30th September rate</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,950</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,950</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in September</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,750 on September  1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,750 on September  1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in September</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,250 on September 28</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.49,250 on September 28</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-3.55%</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-3.48%</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st August rate									</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.52,500</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.53,500</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		31st August rate</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,500</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,500</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in August</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.54,500 on August  7</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.55,500 on August  7</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in August</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.50,350 on August 25</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,350 on August 25</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Falling 								</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-3.81%</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									-3.74%</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st July rate									</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,650</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.48,650</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		31st July rate</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,900</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.52,900</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Highest rate in July</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.51,900 on July 31</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.52,900 on July 31</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Lowest rate in July</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.46,450 on July  4</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,450 on July  4</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Over all performance</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									 Rising 								</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									% Change</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+8.92%</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									+8.74%</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Gold Rates</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									22 Carat</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									24 Carat</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									1 st June rate									</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.46,070</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,070</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																		30th June rate</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																	</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">									Rs.47,350</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">								</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
